--- a/downlink-generation/conf-table.xlsx
+++ b/downlink-generation/conf-table.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim.grebnev\workspaces\gestra-github\msb-1-configurator\downlink-generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F868763-C01D-42C4-81F7-FD7407B991A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A421707-1B35-4ACD-BD26-D62912384B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WhE+gJ/mbta3qA071qa1IhQ0XbIB82MtSAEEARq70AXRdlp0qfHLnvM24qcmitVYJFBko3xs4mORRs6rokELdA==" workbookSaltValue="/FeRes9EvsajiOYVe7zQsg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2490" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conf-Table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="34">
   <si>
     <t>TV [%]</t>
   </si>
@@ -88,9 +88,6 @@
     <t>LV [%]</t>
   </si>
   <si>
-    <t>Decision Parameters (Input)</t>
-  </si>
-  <si>
     <t>MSB1.0</t>
   </si>
   <si>
@@ -134,6 +131,12 @@
   </si>
   <si>
     <t>hardware-model</t>
+  </si>
+  <si>
+    <t>Decision Parameter Set (Input)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration Patameter Set </t>
   </si>
 </sst>
 </file>
@@ -1936,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1969,7 +1972,9 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="H1" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
@@ -1989,16 +1994,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>0</v>
@@ -2036,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
@@ -2045,7 +2050,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="13">
         <v>10</v>
@@ -2084,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
@@ -2093,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="13">
         <v>10</v>
@@ -2132,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -2141,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="13">
         <v>10</v>
@@ -2180,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="10">
         <v>5</v>
@@ -2189,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="13">
         <v>10</v>
@@ -2228,7 +2233,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="10">
         <v>5</v>
@@ -2237,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="13">
         <v>10</v>
@@ -2276,7 +2281,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10">
         <v>5</v>
@@ -2285,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="13">
         <v>10</v>
@@ -2324,16 +2329,16 @@
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="10">
         <v>10</v>
       </c>
       <c r="F9" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="13">
         <v>10</v>
@@ -2372,16 +2377,16 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="10">
         <v>10</v>
       </c>
       <c r="F10" s="10">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="13">
         <v>10</v>
@@ -2420,16 +2425,16 @@
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="10">
         <v>10</v>
       </c>
       <c r="F11" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="13">
         <v>10</v>
@@ -2468,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="10">
         <v>0</v>
@@ -2477,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="13">
         <v>6</v>
@@ -2516,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
@@ -2525,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="13">
         <v>6</v>
@@ -2564,7 +2569,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -2573,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13">
         <v>6</v>
@@ -2612,7 +2617,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="10">
         <v>5</v>
@@ -2621,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="13">
         <v>6</v>
@@ -2660,7 +2665,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10">
         <v>5</v>
@@ -2669,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="13">
         <v>6</v>
@@ -2708,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="10">
         <v>5</v>
@@ -2717,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="13">
         <v>6</v>
@@ -2756,16 +2761,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="10">
         <v>10</v>
       </c>
       <c r="F18" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="13">
         <v>6</v>
@@ -2804,16 +2809,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="10">
         <v>10</v>
       </c>
       <c r="F19" s="10">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="H19" s="13">
         <v>6</v>
@@ -2852,16 +2857,16 @@
         <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="10">
         <v>10</v>
       </c>
       <c r="F20" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="13">
         <v>6</v>
@@ -2900,7 +2905,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="10">
         <v>0</v>
@@ -2909,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="13">
         <v>3</v>
@@ -2948,7 +2953,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="10">
         <v>0</v>
@@ -2957,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="13">
         <v>3</v>
@@ -2996,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -3005,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13">
         <v>3</v>
@@ -3044,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="10">
         <v>5</v>
@@ -3053,7 +3058,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="13">
         <v>3</v>
@@ -3092,7 +3097,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="10">
         <v>5</v>
@@ -3101,7 +3106,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="13">
         <v>3</v>
@@ -3140,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="10">
         <v>5</v>
@@ -3149,7 +3154,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="13">
         <v>3</v>
@@ -3188,16 +3193,16 @@
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="10">
         <v>10</v>
       </c>
       <c r="F27" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="13">
         <v>3</v>
@@ -3236,16 +3241,16 @@
         <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="10">
         <v>10</v>
       </c>
       <c r="F28" s="10">
+        <v>22</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="H28" s="13">
         <v>3</v>
@@ -3284,16 +3289,16 @@
         <v>14</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="10">
         <v>10</v>
       </c>
       <c r="F29" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H29" s="13">
         <v>3</v>
@@ -3332,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="10">
         <v>0</v>
@@ -3341,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="13">
         <v>10</v>
@@ -3380,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="10">
         <v>0</v>
@@ -3389,7 +3394,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="13">
         <v>10</v>
@@ -3428,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -3437,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="13">
         <v>10</v>
@@ -3476,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="10">
         <v>5</v>
@@ -3485,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="13">
         <v>3</v>
@@ -3524,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="10">
         <v>5</v>
@@ -3533,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="13">
         <v>3</v>
@@ -3572,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="10">
         <v>5</v>
@@ -3581,7 +3586,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="13">
         <v>3</v>
@@ -3620,7 +3625,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="10">
         <v>10</v>
@@ -3629,7 +3634,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36" s="13">
         <v>3</v>
@@ -3668,7 +3673,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="10">
         <v>10</v>
@@ -3677,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="13">
         <v>3</v>
@@ -3716,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="10">
         <v>10</v>
@@ -3725,7 +3730,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38" s="13">
         <v>3</v>
@@ -3764,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="10">
         <v>20</v>
@@ -3773,7 +3778,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" s="13">
         <v>3</v>
@@ -3812,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="10">
         <v>20</v>
@@ -3821,7 +3826,7 @@
         <v>32</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" s="13">
         <v>3</v>
@@ -3860,7 +3865,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="10">
         <v>20</v>
@@ -3869,7 +3874,7 @@
         <v>32</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="13">
         <v>3</v>
@@ -3908,7 +3913,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="10">
         <v>0</v>
@@ -3917,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" s="13">
         <v>6</v>
@@ -3956,7 +3961,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="10">
         <v>0</v>
@@ -3965,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="13">
         <v>6</v>
@@ -4004,7 +4009,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="10">
         <v>0</v>
@@ -4013,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="13">
         <v>6</v>
@@ -4052,7 +4057,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="10">
         <v>5</v>
@@ -4061,7 +4066,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" s="13">
         <v>6</v>
@@ -4100,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="10">
         <v>5</v>
@@ -4109,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="13">
         <v>6</v>
@@ -4148,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="10">
         <v>5</v>
@@ -4157,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="13">
         <v>6</v>
@@ -4196,7 +4201,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="10">
         <v>10</v>
@@ -4205,7 +4210,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" s="13">
         <v>2</v>
@@ -4244,7 +4249,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="10">
         <v>10</v>
@@ -4253,7 +4258,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="13">
         <v>2</v>
@@ -4292,7 +4297,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="10">
         <v>10</v>
@@ -4301,7 +4306,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H50" s="13">
         <v>2</v>
@@ -4340,7 +4345,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="10">
         <v>20</v>
@@ -4349,7 +4354,7 @@
         <v>32</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51" s="13">
         <v>2</v>
@@ -4388,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="10">
         <v>20</v>
@@ -4397,7 +4402,7 @@
         <v>32</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="13">
         <v>2</v>
@@ -4436,7 +4441,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="10">
         <v>20</v>
@@ -4445,7 +4450,7 @@
         <v>32</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H53" s="13">
         <v>2</v>
@@ -4484,7 +4489,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="10">
         <v>0</v>
@@ -4493,7 +4498,7 @@
         <v>5</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="13">
         <v>3</v>
@@ -4532,7 +4537,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" s="10">
         <v>0</v>
@@ -4541,7 +4546,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" s="13">
         <v>3</v>
@@ -4580,7 +4585,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="10">
         <v>0</v>
@@ -4589,7 +4594,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" s="13">
         <v>3</v>
@@ -4628,7 +4633,7 @@
         <v>14</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" s="10">
         <v>5</v>
@@ -4637,7 +4642,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" s="13">
         <v>3</v>
@@ -4676,7 +4681,7 @@
         <v>14</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" s="10">
         <v>5</v>
@@ -4685,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" s="13">
         <v>3</v>
@@ -4724,7 +4729,7 @@
         <v>14</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" s="10">
         <v>5</v>
@@ -4733,7 +4738,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" s="13">
         <v>3</v>
@@ -4772,7 +4777,7 @@
         <v>14</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="10">
         <v>10</v>
@@ -4781,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60" s="13">
         <v>1</v>
@@ -4820,7 +4825,7 @@
         <v>14</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="10">
         <v>10</v>
@@ -4829,7 +4834,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H61" s="13">
         <v>1</v>
@@ -4868,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" s="10">
         <v>10</v>
@@ -4877,7 +4882,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H62" s="13">
         <v>1</v>
@@ -4916,7 +4921,7 @@
         <v>14</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63" s="10">
         <v>20</v>
@@ -4925,7 +4930,7 @@
         <v>32</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H63" s="13">
         <v>1</v>
@@ -4964,7 +4969,7 @@
         <v>14</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" s="10">
         <v>20</v>
@@ -4973,7 +4978,7 @@
         <v>32</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" s="13">
         <v>1</v>
@@ -5012,7 +5017,7 @@
         <v>14</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65" s="10">
         <v>20</v>
@@ -5021,7 +5026,7 @@
         <v>32</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H65" s="13">
         <v>1</v>
@@ -5060,7 +5065,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" s="10">
         <v>0</v>
@@ -5069,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H66" s="13">
         <v>10</v>
@@ -5108,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="10">
         <v>0</v>
@@ -5117,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" s="13">
         <v>10</v>
@@ -5156,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="10">
         <v>0</v>
@@ -5165,7 +5170,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H68" s="13">
         <v>10</v>
@@ -5204,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69" s="10">
         <v>5</v>
@@ -5213,7 +5218,7 @@
         <v>10</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H69" s="13">
         <v>3</v>
@@ -5252,7 +5257,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" s="10">
         <v>5</v>
@@ -5261,7 +5266,7 @@
         <v>10</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" s="13">
         <v>3</v>
@@ -5300,7 +5305,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71" s="10">
         <v>5</v>
@@ -5309,7 +5314,7 @@
         <v>10</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H71" s="13">
         <v>3</v>
@@ -5348,7 +5353,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72" s="10">
         <v>10</v>
@@ -5357,7 +5362,7 @@
         <v>23</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H72" s="13">
         <v>3</v>
@@ -5396,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" s="10">
         <v>10</v>
@@ -5405,7 +5410,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="13">
         <v>3</v>
@@ -5444,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74" s="10">
         <v>10</v>
@@ -5453,7 +5458,7 @@
         <v>23</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H74" s="13">
         <v>3</v>
@@ -5492,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75" s="10">
         <v>23</v>
@@ -5501,7 +5506,7 @@
         <v>32</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H75" s="13">
         <v>3</v>
@@ -5540,7 +5545,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="10">
         <v>23</v>
@@ -5549,7 +5554,7 @@
         <v>32</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H76" s="13">
         <v>3</v>
@@ -5588,7 +5593,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77" s="10">
         <v>23</v>
@@ -5597,7 +5602,7 @@
         <v>32</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H77" s="13">
         <v>3</v>
@@ -5636,7 +5641,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="10">
         <v>0</v>
@@ -5645,7 +5650,7 @@
         <v>5</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78" s="13">
         <v>6</v>
@@ -5684,7 +5689,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="10">
         <v>0</v>
@@ -5693,7 +5698,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H79" s="13">
         <v>6</v>
@@ -5732,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="10">
         <v>0</v>
@@ -5741,7 +5746,7 @@
         <v>5</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80" s="13">
         <v>6</v>
@@ -5780,7 +5785,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81" s="10">
         <v>5</v>
@@ -5789,7 +5794,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81" s="13">
         <v>2</v>
@@ -5828,7 +5833,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82" s="10">
         <v>5</v>
@@ -5837,7 +5842,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" s="13">
         <v>2</v>
@@ -5876,7 +5881,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83" s="10">
         <v>5</v>
@@ -5885,7 +5890,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H83" s="13">
         <v>2</v>
@@ -5924,7 +5929,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84" s="10">
         <v>10</v>
@@ -5933,7 +5938,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84" s="13">
         <v>2</v>
@@ -5972,7 +5977,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85" s="10">
         <v>10</v>
@@ -5981,7 +5986,7 @@
         <v>23</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H85" s="13">
         <v>2</v>
@@ -6020,7 +6025,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86" s="10">
         <v>10</v>
@@ -6029,7 +6034,7 @@
         <v>23</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H86" s="13">
         <v>2</v>
@@ -6068,7 +6073,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87" s="10">
         <v>23</v>
@@ -6077,7 +6082,7 @@
         <v>32</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87" s="13">
         <v>2</v>
@@ -6116,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88" s="10">
         <v>23</v>
@@ -6125,7 +6130,7 @@
         <v>32</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H88" s="13">
         <v>2</v>
@@ -6164,7 +6169,7 @@
         <v>13</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E89" s="10">
         <v>23</v>
@@ -6173,7 +6178,7 @@
         <v>32</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H89" s="13">
         <v>2</v>
@@ -6212,7 +6217,7 @@
         <v>14</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="10">
         <v>0</v>
@@ -6221,7 +6226,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H90" s="13">
         <v>3</v>
@@ -6260,7 +6265,7 @@
         <v>14</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91" s="10">
         <v>0</v>
@@ -6269,7 +6274,7 @@
         <v>5</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H91" s="13">
         <v>3</v>
@@ -6308,7 +6313,7 @@
         <v>14</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92" s="10">
         <v>0</v>
@@ -6317,7 +6322,7 @@
         <v>5</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H92" s="13">
         <v>3</v>
@@ -6356,7 +6361,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="10">
         <v>5</v>
@@ -6365,7 +6370,7 @@
         <v>10</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H93" s="13">
         <v>3</v>
@@ -6404,7 +6409,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" s="10">
         <v>5</v>
@@ -6413,7 +6418,7 @@
         <v>10</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H94" s="13">
         <v>3</v>
@@ -6452,7 +6457,7 @@
         <v>14</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" s="10">
         <v>5</v>
@@ -6461,7 +6466,7 @@
         <v>10</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H95" s="13">
         <v>3</v>
@@ -6500,7 +6505,7 @@
         <v>14</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" s="10">
         <v>10</v>
@@ -6509,7 +6514,7 @@
         <v>23</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H96" s="13">
         <v>3</v>
@@ -6548,7 +6553,7 @@
         <v>14</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" s="10">
         <v>10</v>
@@ -6557,7 +6562,7 @@
         <v>23</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H97" s="13">
         <v>3</v>
@@ -6596,7 +6601,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" s="10">
         <v>10</v>
@@ -6605,7 +6610,7 @@
         <v>23</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H98" s="13">
         <v>3</v>
@@ -6644,7 +6649,7 @@
         <v>14</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" s="10">
         <v>23</v>
@@ -6653,7 +6658,7 @@
         <v>32</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H99" s="13">
         <v>3</v>
@@ -6692,7 +6697,7 @@
         <v>14</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100" s="10">
         <v>23</v>
@@ -6701,7 +6706,7 @@
         <v>32</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H100" s="13">
         <v>3</v>
@@ -6740,7 +6745,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101" s="11">
         <v>23</v>
@@ -6749,7 +6754,7 @@
         <v>32</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H101" s="14">
         <v>3</v>
@@ -6778,7 +6783,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aginzU5XJmPGjGNNaiyWt3s1xipW3YskDQ0d+jm2Vyy8qqjJef+0nTLfKCkZNCz4JYfmld/TC0c1NtmhXtgr5Q==" saltValue="YqgePFox+txLd/r1gM+lGA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2av8ATYbBw98Yvf7ka138+HsDaFL+eYg19Z14maIMWgq6JIcwUZKhQkGQ9B0dnI0SO16xV3PMuypbEnU2y/6Vw==" saltValue="fWwlMd1CcPmM6oOxCnEjvw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:O1"/>
@@ -6797,7 +6802,7 @@
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6816,22 +6821,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
